--- a/Code/Results/Cases/Case_3_217/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_217/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.498624314183189</v>
+        <v>1.307773574878411</v>
       </c>
       <c r="C2">
-        <v>0.4955758583029422</v>
+        <v>0.3900817533207714</v>
       </c>
       <c r="D2">
-        <v>0.06686284916890628</v>
+        <v>0.02428095546225251</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.3176547142534361</v>
+        <v>0.4649055614100064</v>
       </c>
       <c r="G2">
-        <v>0.2125257960061688</v>
+        <v>0.3088512092434641</v>
       </c>
       <c r="H2">
-        <v>0.1850666969690664</v>
+        <v>0.4806378514355387</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4081731460577629</v>
+        <v>0.3004181560698385</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.7887433717611003</v>
+        <v>1.507917572930651</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.044391335608736</v>
+        <v>1.163580658887838</v>
       </c>
       <c r="C3">
-        <v>0.4631442061782991</v>
+        <v>0.3798827275163035</v>
       </c>
       <c r="D3">
-        <v>0.05897740376101979</v>
+        <v>0.02166059791213115</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.2958390434555724</v>
+        <v>0.4657199396035665</v>
       </c>
       <c r="G3">
-        <v>0.199012401850986</v>
+        <v>0.310876240378299</v>
       </c>
       <c r="H3">
-        <v>0.1854782861578599</v>
+        <v>0.4859936546155197</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3596420970175274</v>
+        <v>0.2888932264966115</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.7605578036535121</v>
+        <v>1.523138207007122</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.765698062718059</v>
+        <v>1.074855532874778</v>
       </c>
       <c r="C4">
-        <v>0.4434491690669802</v>
+        <v>0.3737088472802839</v>
       </c>
       <c r="D4">
-        <v>0.05412877379427528</v>
+        <v>0.02004353464915454</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.283441194047434</v>
+        <v>0.466659704421275</v>
       </c>
       <c r="G4">
-        <v>0.1916560479653739</v>
+        <v>0.3124891205218034</v>
       </c>
       <c r="H4">
-        <v>0.1863196185711473</v>
+        <v>0.4896011118858894</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3302798450700237</v>
+        <v>0.2819896235270107</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.7464688129088728</v>
+        <v>1.533924988132881</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.652144236276854</v>
+        <v>1.038653866740162</v>
       </c>
       <c r="C5">
-        <v>0.4354751262109176</v>
+        <v>0.3712155053138133</v>
       </c>
       <c r="D5">
-        <v>0.05215076601754731</v>
+        <v>0.01938256348523737</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.278624518736919</v>
+        <v>0.4671530215367099</v>
       </c>
       <c r="G5">
-        <v>0.1888798740067941</v>
+        <v>0.3132389749249498</v>
       </c>
       <c r="H5">
-        <v>0.1868037703861845</v>
+        <v>0.4911513290938103</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3184139743440682</v>
+        <v>0.2792198208430534</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.7414905195680177</v>
+        <v>1.538682290512241</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.633288660326741</v>
+        <v>1.032639931582196</v>
       </c>
       <c r="C6">
-        <v>0.434154090468212</v>
+        <v>0.3708028608349139</v>
       </c>
       <c r="D6">
-        <v>0.05182217803699274</v>
+        <v>0.01927268998591103</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.2778385100082588</v>
+        <v>0.4672415952077174</v>
       </c>
       <c r="G6">
-        <v>0.1884318513859711</v>
+        <v>0.3133690705822971</v>
       </c>
       <c r="H6">
-        <v>0.1868925076073964</v>
+        <v>0.491413580548965</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3164493777541395</v>
+        <v>0.2787625237693163</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.7407086663900913</v>
+        <v>1.539494052896572</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.764166617685021</v>
+        <v>1.074367485475648</v>
       </c>
       <c r="C7">
-        <v>0.4433414222174292</v>
+        <v>0.3736751293765792</v>
       </c>
       <c r="D7">
-        <v>0.05410210691914585</v>
+        <v>0.02003462861778615</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.283375300479598</v>
+        <v>0.4666659109359514</v>
       </c>
       <c r="G7">
-        <v>0.1916177295698844</v>
+        <v>0.3124988588446556</v>
       </c>
       <c r="H7">
-        <v>0.1863255845175047</v>
+        <v>0.4896216942160478</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3301194279980564</v>
+        <v>0.281952092940486</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.746398643228261</v>
+        <v>1.533987683747881</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.341938966988721</v>
+        <v>1.258096666694769</v>
       </c>
       <c r="C8">
-        <v>0.4843462586557052</v>
+        <v>0.3865469912847459</v>
       </c>
       <c r="D8">
-        <v>0.06414512961413976</v>
+        <v>0.02337917475370688</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.3099163703404386</v>
+        <v>0.4650949594777458</v>
       </c>
       <c r="G8">
-        <v>0.2076618303986066</v>
+        <v>0.3094725559183829</v>
       </c>
       <c r="H8">
-        <v>0.1850823057156177</v>
+        <v>0.4824182942353659</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3913428515743789</v>
+        <v>0.2964085207623839</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.7783289807135958</v>
+        <v>1.512866027298784</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.478412087529478</v>
+        <v>1.616795846373179</v>
       </c>
       <c r="C9">
-        <v>0.5666394982301881</v>
+        <v>0.4124762808711466</v>
       </c>
       <c r="D9">
-        <v>0.08380533644859156</v>
+        <v>0.02987144223593674</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.3705977637550859</v>
+        <v>0.4655139952445495</v>
       </c>
       <c r="G9">
-        <v>0.2473048629028369</v>
+        <v>0.3064846284897342</v>
       </c>
       <c r="H9">
-        <v>0.1876340321856276</v>
+        <v>0.4708260694431985</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5153529019081731</v>
+        <v>0.3261286962867445</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.8686550572754896</v>
+        <v>1.482919567350265</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.318289269308536</v>
+        <v>1.879273396793678</v>
       </c>
       <c r="C10">
-        <v>0.6284846292612087</v>
+        <v>0.4319299548987487</v>
       </c>
       <c r="D10">
-        <v>0.09826168149037073</v>
+        <v>0.03459903524343133</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.421511535493778</v>
+        <v>0.4679709947772395</v>
       </c>
       <c r="G10">
-        <v>0.2824723135936722</v>
+        <v>0.306106652337661</v>
       </c>
       <c r="H10">
-        <v>0.1930216212076772</v>
+        <v>0.4638576606222102</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6096079995203354</v>
+        <v>0.3488034166053779</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9551337430912952</v>
+        <v>1.467964934652713</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.702119166487762</v>
+        <v>1.998434730994632</v>
       </c>
       <c r="C11">
-        <v>0.6569782796192669</v>
+        <v>0.4408644126937702</v>
       </c>
       <c r="D11">
-        <v>0.1048488865583579</v>
+        <v>0.03674020731091332</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4463020962612845</v>
+        <v>0.4695588054781297</v>
       </c>
       <c r="G11">
-        <v>0.3000339607537086</v>
+        <v>0.3063337869565004</v>
       </c>
       <c r="H11">
-        <v>0.1963475801552761</v>
+        <v>0.4610246035513512</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6533467522892664</v>
+        <v>0.3593018870141691</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.9996108600205389</v>
+        <v>1.462703222970248</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.847779610504574</v>
+        <v>2.043521427352005</v>
       </c>
       <c r="C12">
-        <v>0.6678250172691094</v>
+        <v>0.4442595652828345</v>
       </c>
       <c r="D12">
-        <v>0.1073455625783879</v>
+        <v>0.03754961757955755</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4559467041885696</v>
+        <v>0.4702279196611556</v>
       </c>
       <c r="G12">
-        <v>0.3069315386413365</v>
+        <v>0.306477534336409</v>
       </c>
       <c r="H12">
-        <v>0.1977429828814365</v>
+        <v>0.4600003149512588</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6700491739480157</v>
+        <v>0.3633038037005178</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.017260984259252</v>
+        <v>1.460933271418156</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.816394150783992</v>
+        <v>2.033812890142258</v>
       </c>
       <c r="C13">
-        <v>0.6654863666973085</v>
+        <v>0.4435278359674157</v>
       </c>
       <c r="D13">
-        <v>0.10680774760894</v>
+        <v>0.0373753598596096</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4538577592350848</v>
+        <v>0.4700807926852448</v>
       </c>
       <c r="G13">
-        <v>0.3054346444958327</v>
+        <v>0.3064440023831452</v>
       </c>
       <c r="H13">
-        <v>0.1974362435424553</v>
+        <v>0.4602187542070055</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6664455427142144</v>
+        <v>0.3624407468575583</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.013422645547905</v>
+        <v>1.461304549875308</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.714096125815672</v>
+        <v>2.002144798462439</v>
       </c>
       <c r="C14">
-        <v>0.6578694782749039</v>
+        <v>0.4411434980253546</v>
       </c>
       <c r="D14">
-        <v>0.1050542405689896</v>
+        <v>0.03680682641976318</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4470902787060709</v>
+        <v>0.4696124928089205</v>
       </c>
       <c r="G14">
-        <v>0.3005963364155519</v>
+        <v>0.3063444540226214</v>
       </c>
       <c r="H14">
-        <v>0.1964595959919251</v>
+        <v>0.4609393616587028</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6547179810187629</v>
+        <v>0.3596305987181978</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.001046348485943</v>
+        <v>1.462553142631663</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.651478132672366</v>
+        <v>1.982742271963957</v>
       </c>
       <c r="C15">
-        <v>0.6532114695588689</v>
+        <v>0.4396845576891337</v>
       </c>
       <c r="D15">
-        <v>0.1039804800509785</v>
+        <v>0.03645839884603674</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4429791644317191</v>
+        <v>0.4693344881857939</v>
       </c>
       <c r="G15">
-        <v>0.2976656425274911</v>
+        <v>0.3062910070964051</v>
       </c>
       <c r="H15">
-        <v>0.1958793860160455</v>
+        <v>0.4613870768093449</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6475531620930042</v>
+        <v>0.3579127355558001</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.9935728120276508</v>
+        <v>1.463346950747734</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.293245503724052</v>
+        <v>1.871480862916485</v>
       </c>
       <c r="C16">
-        <v>0.6266301677767387</v>
+        <v>0.4313477460724187</v>
       </c>
       <c r="D16">
-        <v>0.09783146840038626</v>
+        <v>0.03445891062359863</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4199261036871178</v>
+        <v>0.4678767082945186</v>
       </c>
       <c r="G16">
-        <v>0.2813579720179575</v>
+        <v>0.3060998689562524</v>
       </c>
       <c r="H16">
-        <v>0.1928227177733959</v>
+        <v>0.4640495939996043</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6067682143368245</v>
+        <v>0.3481210092149354</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9523362104195598</v>
+        <v>1.468339891910119</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.073973735903451</v>
+        <v>1.80316210610647</v>
       </c>
       <c r="C17">
-        <v>0.6104190599185415</v>
+        <v>0.4262548803253594</v>
       </c>
       <c r="D17">
-        <v>0.0940625111398532</v>
+        <v>0.03322983851037975</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4062167811170099</v>
+        <v>0.4671029879324919</v>
       </c>
       <c r="G17">
-        <v>0.2717697683968652</v>
+        <v>0.3060850747747423</v>
       </c>
       <c r="H17">
-        <v>0.1911786434249194</v>
+        <v>0.4657693103968157</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5819793880753679</v>
+        <v>0.3421611109637439</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9284021654700609</v>
+        <v>1.471798299690306</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.948016817798532</v>
+        <v>1.76384442356516</v>
       </c>
       <c r="C18">
-        <v>0.6011284167231565</v>
+        <v>0.4233336082697292</v>
       </c>
       <c r="D18">
-        <v>0.09189569298421674</v>
+        <v>0.03252202367725232</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.3984834837127877</v>
+        <v>0.4667021989525466</v>
       </c>
       <c r="G18">
-        <v>0.2664006400056422</v>
+        <v>0.3061141079091954</v>
       </c>
       <c r="H18">
-        <v>0.1903147394565323</v>
+        <v>0.4667901522081195</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5678016098628973</v>
+        <v>0.338750420788017</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9151150990149119</v>
+        <v>1.473932497339021</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.905396156615382</v>
+        <v>1.75052833568634</v>
       </c>
       <c r="C19">
-        <v>0.597988381172911</v>
+        <v>0.4223459018121503</v>
       </c>
       <c r="D19">
-        <v>0.09116219546136506</v>
+        <v>0.03228221921200003</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.3958905549610066</v>
+        <v>0.4665740885476808</v>
       </c>
       <c r="G19">
-        <v>0.2646071194337765</v>
+        <v>0.3061303752769788</v>
       </c>
       <c r="H19">
-        <v>0.1900359768711368</v>
+        <v>0.4671412348144557</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5630145585760715</v>
+        <v>0.3375985894872571</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9106966061847857</v>
+        <v>1.474679978037699</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.097298373065996</v>
+        <v>1.810437105131712</v>
       </c>
       <c r="C20">
-        <v>0.6121412517684348</v>
+        <v>0.4267961980811776</v>
       </c>
       <c r="D20">
-        <v>0.09446361630578082</v>
+        <v>0.03336076728876236</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4076602776875973</v>
+        <v>0.4671807719074366</v>
       </c>
       <c r="G20">
-        <v>0.2727752064197375</v>
+        <v>0.3060827616076622</v>
       </c>
       <c r="H20">
-        <v>0.1913451290210162</v>
+        <v>0.4655829615598179</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5846098017472769</v>
+        <v>0.3427937635351128</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.9308999110178604</v>
+        <v>1.471415131307879</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.744134567078731</v>
+        <v>2.011447511380823</v>
       </c>
       <c r="C21">
-        <v>0.6601051589017004</v>
+        <v>0.441843516478599</v>
       </c>
       <c r="D21">
-        <v>0.105569221548123</v>
+        <v>0.03697385699224753</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4490708895665065</v>
+        <v>0.4697482006190299</v>
       </c>
       <c r="G21">
-        <v>0.30201056398829</v>
+        <v>0.3063721240656321</v>
       </c>
       <c r="H21">
-        <v>0.1967426877052532</v>
+        <v>0.4607263840794928</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6581587337094987</v>
+        <v>0.3604552918190507</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.004659075101983</v>
+        <v>1.462180353593851</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.168730940882256</v>
+        <v>2.142601974944114</v>
       </c>
       <c r="C22">
-        <v>0.6917861314005336</v>
+        <v>0.4517468269014557</v>
       </c>
       <c r="D22">
-        <v>0.1128408117723154</v>
+        <v>0.03932700751278162</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4776445773220743</v>
+        <v>0.4718217259755164</v>
       </c>
       <c r="G22">
-        <v>0.3225710311852055</v>
+        <v>0.3068979317388596</v>
       </c>
       <c r="H22">
-        <v>0.2010678636112857</v>
+        <v>0.4578352295499286</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.7070484805888668</v>
+        <v>0.3721518336306957</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.057607951576387</v>
+        <v>1.457442473656073</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.941925847683876</v>
+        <v>2.072623072399097</v>
       </c>
       <c r="C23">
-        <v>0.6748450798479837</v>
+        <v>0.4464550393188063</v>
       </c>
       <c r="D23">
-        <v>0.1089583611296376</v>
+        <v>0.03807185420419046</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4622482402333361</v>
+        <v>0.4706787726612447</v>
       </c>
       <c r="G23">
-        <v>0.3114566620787258</v>
+        <v>0.3065863760381404</v>
       </c>
       <c r="H23">
-        <v>0.1986829270982895</v>
+        <v>0.4593523808993325</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.680874482148468</v>
+        <v>0.3658951148356948</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.028890072251698</v>
+        <v>1.459852138847737</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.086752980852623</v>
+        <v>1.807148203479073</v>
       </c>
       <c r="C24">
-        <v>0.6113625578259132</v>
+        <v>0.4265514474761858</v>
       </c>
       <c r="D24">
-        <v>0.09428227669288702</v>
+        <v>0.033301578137646</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4070072124250501</v>
+        <v>0.4671454686307754</v>
       </c>
       <c r="G24">
-        <v>0.2723202033553633</v>
+        <v>0.3060836904872843</v>
       </c>
       <c r="H24">
-        <v>0.1912696084176986</v>
+        <v>0.4656671097166409</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5834203634937722</v>
+        <v>0.3425076922957402</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.929769212314568</v>
+        <v>1.471587907292502</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.170319247815826</v>
+        <v>1.519937911518127</v>
       </c>
       <c r="C25">
-        <v>0.5441522118725572</v>
+        <v>0.4053897558611936</v>
       </c>
       <c r="D25">
-        <v>0.07848715379087423</v>
+        <v>0.0281224063817973</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.3531513621102604</v>
+        <v>0.4650243457696064</v>
       </c>
       <c r="G25">
-        <v>0.2355998260599321</v>
+        <v>0.3069753145685823</v>
       </c>
       <c r="H25">
-        <v>0.1863627684578262</v>
+        <v>0.4736904338342995</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4813089629855369</v>
+        <v>0.3179414573047978</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.8409327238789501</v>
+        <v>1.489787135212225</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_217/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_217/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.307773574878411</v>
+        <v>3.498624314183076</v>
       </c>
       <c r="C2">
-        <v>0.3900817533207714</v>
+        <v>0.4955758583027432</v>
       </c>
       <c r="D2">
-        <v>0.02428095546225251</v>
+        <v>0.06686284916886365</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.4649055614100064</v>
+        <v>0.3176547142534432</v>
       </c>
       <c r="G2">
-        <v>0.3088512092434641</v>
+        <v>0.2125257960061262</v>
       </c>
       <c r="H2">
-        <v>0.4806378514355387</v>
+        <v>0.1850666969690664</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3004181560698385</v>
+        <v>0.4081731460577913</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.507917572930651</v>
+        <v>0.7887433717610577</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.163580658887838</v>
+        <v>3.04439133560885</v>
       </c>
       <c r="C3">
-        <v>0.3798827275163035</v>
+        <v>0.4631442061785833</v>
       </c>
       <c r="D3">
-        <v>0.02166059791213115</v>
+        <v>0.05897740376114058</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.4657199396035665</v>
+        <v>0.2958390434555724</v>
       </c>
       <c r="G3">
-        <v>0.310876240378299</v>
+        <v>0.1990124018509221</v>
       </c>
       <c r="H3">
-        <v>0.4859936546155197</v>
+        <v>0.1854782861578528</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2888932264966115</v>
+        <v>0.3596420970175842</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.523138207007122</v>
+        <v>0.7605578036534411</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.074855532874778</v>
+        <v>2.765698062718172</v>
       </c>
       <c r="C4">
-        <v>0.3737088472802839</v>
+        <v>0.443449169066696</v>
       </c>
       <c r="D4">
-        <v>0.02004353464915454</v>
+        <v>0.05412877379428238</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.466659704421275</v>
+        <v>0.283441194047434</v>
       </c>
       <c r="G4">
-        <v>0.3124891205218034</v>
+        <v>0.1916560479653739</v>
       </c>
       <c r="H4">
-        <v>0.4896011118858894</v>
+        <v>0.1863196185711544</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2819896235270107</v>
+        <v>0.3302798450700948</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.533924988132881</v>
+        <v>0.7464688129088728</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.038653866740162</v>
+        <v>2.652144236276854</v>
       </c>
       <c r="C5">
-        <v>0.3712155053138133</v>
+        <v>0.4354751262109176</v>
       </c>
       <c r="D5">
-        <v>0.01938256348523737</v>
+        <v>0.05215076601763258</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.4671530215367099</v>
+        <v>0.2786245187369332</v>
       </c>
       <c r="G5">
-        <v>0.3132389749249498</v>
+        <v>0.1888798740067301</v>
       </c>
       <c r="H5">
-        <v>0.4911513290938103</v>
+        <v>0.1868037703860637</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2792198208430534</v>
+        <v>0.3184139743439687</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.538682290512241</v>
+        <v>0.7414905195680035</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.032639931582196</v>
+        <v>2.633288660326571</v>
       </c>
       <c r="C6">
-        <v>0.3708028608349139</v>
+        <v>0.434154090467743</v>
       </c>
       <c r="D6">
-        <v>0.01927268998591103</v>
+        <v>0.05182217803675826</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.4672415952077174</v>
+        <v>0.277838510008273</v>
       </c>
       <c r="G6">
-        <v>0.3133690705822971</v>
+        <v>0.1884318513859142</v>
       </c>
       <c r="H6">
-        <v>0.491413580548965</v>
+        <v>0.1868925076073964</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2787625237693163</v>
+        <v>0.3164493777540542</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.539494052896572</v>
+        <v>0.7407086663900202</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.074367485475648</v>
+        <v>2.764166617684964</v>
       </c>
       <c r="C7">
-        <v>0.3736751293765792</v>
+        <v>0.443341422217685</v>
       </c>
       <c r="D7">
-        <v>0.02003462861778615</v>
+        <v>0.05410210691911743</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.4666659109359514</v>
+        <v>0.283375300479598</v>
       </c>
       <c r="G7">
-        <v>0.3124988588446556</v>
+        <v>0.1916177295698915</v>
       </c>
       <c r="H7">
-        <v>0.4896216942160478</v>
+        <v>0.1863255845176184</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.281952092940486</v>
+        <v>0.3301194279980137</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.533987683747881</v>
+        <v>0.7463986432282752</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.258096666694769</v>
+        <v>3.341938966988494</v>
       </c>
       <c r="C8">
-        <v>0.3865469912847459</v>
+        <v>0.4843462586556484</v>
       </c>
       <c r="D8">
-        <v>0.02337917475370688</v>
+        <v>0.06414512961406871</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.4650949594777458</v>
+        <v>0.3099163703404244</v>
       </c>
       <c r="G8">
-        <v>0.3094725559183829</v>
+        <v>0.2076618303985001</v>
       </c>
       <c r="H8">
-        <v>0.4824182942353659</v>
+        <v>0.1850823057156177</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2964085207623839</v>
+        <v>0.3913428515742652</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.512866027298784</v>
+        <v>0.77832898071361</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.616795846373179</v>
+        <v>4.478412087529762</v>
       </c>
       <c r="C9">
-        <v>0.4124762808711466</v>
+        <v>0.5666394982306713</v>
       </c>
       <c r="D9">
-        <v>0.02987144223593674</v>
+        <v>0.08380533644856314</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.4655139952445495</v>
+        <v>0.3705977637551001</v>
       </c>
       <c r="G9">
-        <v>0.3064846284897342</v>
+        <v>0.2473048629028156</v>
       </c>
       <c r="H9">
-        <v>0.4708260694431985</v>
+        <v>0.1876340321856205</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3261286962867445</v>
+        <v>0.5153529019082015</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.482919567350265</v>
+        <v>0.8686550572754896</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.879273396793678</v>
+        <v>5.318289269308821</v>
       </c>
       <c r="C10">
-        <v>0.4319299548987487</v>
+        <v>0.6284846292608961</v>
       </c>
       <c r="D10">
-        <v>0.03459903524343133</v>
+        <v>0.098261681490456</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.4679709947772395</v>
+        <v>0.4215115354937637</v>
       </c>
       <c r="G10">
-        <v>0.306106652337661</v>
+        <v>0.2824723135936722</v>
       </c>
       <c r="H10">
-        <v>0.4638576606222102</v>
+        <v>0.1930216212076772</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3488034166053779</v>
+        <v>0.6096079995204349</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.467964934652713</v>
+        <v>0.9551337430912383</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.998434730994632</v>
+        <v>5.702119166487535</v>
       </c>
       <c r="C11">
-        <v>0.4408644126937702</v>
+        <v>0.6569782796189827</v>
       </c>
       <c r="D11">
-        <v>0.03674020731091332</v>
+        <v>0.1048488865583437</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.4695588054781297</v>
+        <v>0.4463020962612845</v>
       </c>
       <c r="G11">
-        <v>0.3063337869565004</v>
+        <v>0.3000339607537086</v>
       </c>
       <c r="H11">
-        <v>0.4610246035513512</v>
+        <v>0.1963475801552761</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3593018870141691</v>
+        <v>0.6533467522891812</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.462703222970248</v>
+        <v>0.9996108600205389</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.043521427352005</v>
+        <v>5.847779610504517</v>
       </c>
       <c r="C12">
-        <v>0.4442595652828345</v>
+        <v>0.6678250172688251</v>
       </c>
       <c r="D12">
-        <v>0.03754961757955755</v>
+        <v>0.1073455625784732</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.4702279196611556</v>
+        <v>0.4559467041885554</v>
       </c>
       <c r="G12">
-        <v>0.306477534336409</v>
+        <v>0.3069315386413365</v>
       </c>
       <c r="H12">
-        <v>0.4600003149512588</v>
+        <v>0.1977429828813086</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3633038037005178</v>
+        <v>0.6700491739480015</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.460933271418156</v>
+        <v>1.017260984259394</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.033812890142258</v>
+        <v>5.816394150783879</v>
       </c>
       <c r="C13">
-        <v>0.4435278359674157</v>
+        <v>0.6654863666975075</v>
       </c>
       <c r="D13">
-        <v>0.0373753598596096</v>
+        <v>0.1068077476090252</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.4700807926852448</v>
+        <v>0.4538577592350919</v>
       </c>
       <c r="G13">
-        <v>0.3064440023831452</v>
+        <v>0.3054346444959464</v>
       </c>
       <c r="H13">
-        <v>0.4602187542070055</v>
+        <v>0.1974362435425689</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3624407468575583</v>
+        <v>0.6664455427142002</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.461304549875308</v>
+        <v>1.013422645547877</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.002144798462439</v>
+        <v>5.7140961258159</v>
       </c>
       <c r="C14">
-        <v>0.4411434980253546</v>
+        <v>0.6578694782748755</v>
       </c>
       <c r="D14">
-        <v>0.03680682641976318</v>
+        <v>0.1050542405689328</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.4696124928089205</v>
+        <v>0.4470902787060709</v>
       </c>
       <c r="G14">
-        <v>0.3063444540226214</v>
+        <v>0.3005963364156088</v>
       </c>
       <c r="H14">
-        <v>0.4609393616587028</v>
+        <v>0.1964595959919251</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3596305987181978</v>
+        <v>0.6547179810188339</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.462553142631663</v>
+        <v>1.001046348485971</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.982742271963957</v>
+        <v>5.651478132672537</v>
       </c>
       <c r="C15">
-        <v>0.4396845576891337</v>
+        <v>0.6532114695591531</v>
       </c>
       <c r="D15">
-        <v>0.03645839884603674</v>
+        <v>0.1039804800509643</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.4693344881857939</v>
+        <v>0.4429791644317191</v>
       </c>
       <c r="G15">
-        <v>0.3062910070964051</v>
+        <v>0.2976656425275479</v>
       </c>
       <c r="H15">
-        <v>0.4613870768093449</v>
+        <v>0.1958793860160455</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3579127355558001</v>
+        <v>0.6475531620930894</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.463346950747734</v>
+        <v>0.9935728120277076</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.871480862916485</v>
+        <v>5.293245503724279</v>
       </c>
       <c r="C16">
-        <v>0.4313477460724187</v>
+        <v>0.6266301677767672</v>
       </c>
       <c r="D16">
-        <v>0.03445891062359863</v>
+        <v>0.0978314684001873</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.4678767082945186</v>
+        <v>0.4199261036871178</v>
       </c>
       <c r="G16">
-        <v>0.3060998689562524</v>
+        <v>0.281357972018057</v>
       </c>
       <c r="H16">
-        <v>0.4640495939996043</v>
+        <v>0.1928227177734101</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3481210092149354</v>
+        <v>0.6067682143367961</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.468339891910119</v>
+        <v>0.9523362104196167</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.80316210610647</v>
+        <v>5.073973735903451</v>
       </c>
       <c r="C17">
-        <v>0.4262548803253594</v>
+        <v>0.6104190599189963</v>
       </c>
       <c r="D17">
-        <v>0.03322983851037975</v>
+        <v>0.09406251113996689</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.4671029879324919</v>
+        <v>0.4062167811170099</v>
       </c>
       <c r="G17">
-        <v>0.3060850747747423</v>
+        <v>0.2717697683968083</v>
       </c>
       <c r="H17">
-        <v>0.4657693103968157</v>
+        <v>0.1911786434249336</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3421611109637439</v>
+        <v>0.5819793880753252</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.471798299690306</v>
+        <v>0.9284021654700041</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.76384442356516</v>
+        <v>4.948016817798703</v>
       </c>
       <c r="C18">
-        <v>0.4233336082697292</v>
+        <v>0.6011284167233555</v>
       </c>
       <c r="D18">
-        <v>0.03252202367725232</v>
+        <v>0.09189569298423095</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4667021989525466</v>
+        <v>0.3984834837127735</v>
       </c>
       <c r="G18">
-        <v>0.3061141079091954</v>
+        <v>0.2664006400057133</v>
       </c>
       <c r="H18">
-        <v>0.4667901522081195</v>
+        <v>0.190314739456646</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.338750420788017</v>
+        <v>0.5678016098628831</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.473932497339021</v>
+        <v>0.9151150990148551</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.75052833568634</v>
+        <v>4.905396156615666</v>
       </c>
       <c r="C19">
-        <v>0.4223459018121503</v>
+        <v>0.5979883811731384</v>
       </c>
       <c r="D19">
-        <v>0.03228221921200003</v>
+        <v>0.09116219546113058</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.4665740885476808</v>
+        <v>0.3958905549610137</v>
       </c>
       <c r="G19">
-        <v>0.3061303752769788</v>
+        <v>0.2646071194337907</v>
       </c>
       <c r="H19">
-        <v>0.4671412348144557</v>
+        <v>0.1900359768711368</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3375985894872571</v>
+        <v>0.5630145585759863</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.474679978037699</v>
+        <v>0.9106966061847857</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.810437105131712</v>
+        <v>5.097298373065939</v>
       </c>
       <c r="C20">
-        <v>0.4267961980811776</v>
+        <v>0.6121412517686053</v>
       </c>
       <c r="D20">
-        <v>0.03336076728876236</v>
+        <v>0.09446361630593003</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.4671807719074366</v>
+        <v>0.4076602776876044</v>
       </c>
       <c r="G20">
-        <v>0.3060827616076622</v>
+        <v>0.2727752064197233</v>
       </c>
       <c r="H20">
-        <v>0.4655829615598179</v>
+        <v>0.1913451290210162</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3427937635351128</v>
+        <v>0.5846098017472485</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.471415131307879</v>
+        <v>0.9308999110178604</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.011447511380823</v>
+        <v>5.744134567079016</v>
       </c>
       <c r="C21">
-        <v>0.441843516478599</v>
+        <v>0.6601051589017288</v>
       </c>
       <c r="D21">
-        <v>0.03697385699224753</v>
+        <v>0.1055692215481088</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4697482006190299</v>
+        <v>0.4490708895665207</v>
       </c>
       <c r="G21">
-        <v>0.3063721240656321</v>
+        <v>0.30201056398829</v>
       </c>
       <c r="H21">
-        <v>0.4607263840794928</v>
+        <v>0.1967426877052532</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3604552918190507</v>
+        <v>0.6581587337094135</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.462180353593851</v>
+        <v>1.004659075101898</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.142601974944114</v>
+        <v>6.168730940882256</v>
       </c>
       <c r="C22">
-        <v>0.4517468269014557</v>
+        <v>0.691786131400562</v>
       </c>
       <c r="D22">
-        <v>0.03932700751278162</v>
+        <v>0.1128408117722586</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.4718217259755164</v>
+        <v>0.4776445773220672</v>
       </c>
       <c r="G22">
-        <v>0.3068979317388596</v>
+        <v>0.3225710311851628</v>
       </c>
       <c r="H22">
-        <v>0.4578352295499286</v>
+        <v>0.2010678636112715</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3721518336306957</v>
+        <v>0.7070484805889095</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.457442473656073</v>
+        <v>1.057607951576443</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.072623072399097</v>
+        <v>5.941925847683478</v>
       </c>
       <c r="C23">
-        <v>0.4464550393188063</v>
+        <v>0.6748450798482395</v>
       </c>
       <c r="D23">
-        <v>0.03807185420419046</v>
+        <v>0.1089583611296234</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.4706787726612447</v>
+        <v>0.4622482402333361</v>
       </c>
       <c r="G23">
-        <v>0.3065863760381404</v>
+        <v>0.3114566620788395</v>
       </c>
       <c r="H23">
-        <v>0.4593523808993325</v>
+        <v>0.1986829270981616</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3658951148356948</v>
+        <v>0.6808744821485675</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.459852138847737</v>
+        <v>1.028890072251642</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.807148203479073</v>
+        <v>5.08675298085268</v>
       </c>
       <c r="C24">
-        <v>0.4265514474761858</v>
+        <v>0.6113625578261406</v>
       </c>
       <c r="D24">
-        <v>0.033301578137646</v>
+        <v>0.09428227669292966</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.4671454686307754</v>
+        <v>0.4070072124250501</v>
       </c>
       <c r="G24">
-        <v>0.3060836904872843</v>
+        <v>0.2723202033553207</v>
       </c>
       <c r="H24">
-        <v>0.4656671097166409</v>
+        <v>0.1912696084176986</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3425076922957402</v>
+        <v>0.5834203634937722</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.471587907292502</v>
+        <v>0.9297692123145112</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.519937911518127</v>
+        <v>4.170319247815712</v>
       </c>
       <c r="C25">
-        <v>0.4053897558611936</v>
+        <v>0.5441522118725857</v>
       </c>
       <c r="D25">
-        <v>0.0281224063817973</v>
+        <v>0.07848715379093818</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.4650243457696064</v>
+        <v>0.3531513621102604</v>
       </c>
       <c r="G25">
-        <v>0.3069753145685823</v>
+        <v>0.2355998260599321</v>
       </c>
       <c r="H25">
-        <v>0.4736904338342995</v>
+        <v>0.1863627684578262</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3179414573047978</v>
+        <v>0.4813089629856364</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.489787135212225</v>
+        <v>0.8409327238789075</v>
       </c>
     </row>
   </sheetData>
